--- a/regionseng/11/industry/industry.xlsx
+++ b/regionseng/11/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -154,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -172,6 +178,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,7 +497,7 @@
     <col min="1" max="1" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -502,7 +514,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -549,8 +561,14 @@
       <c r="P2" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -599,8 +617,14 @@
       <c r="P3" s="6">
         <v>954.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>1263.3</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1618.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -649,8 +673,14 @@
       <c r="P4" s="6">
         <v>960.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="6">
+        <v>1249.0999999999999</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1616.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -699,8 +729,14 @@
       <c r="P5" s="7">
         <v>5006</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="7">
+        <v>5155</v>
+      </c>
+      <c r="R5" s="12">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -749,8 +785,14 @@
       <c r="P6" s="7">
         <v>4804</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="7">
+        <v>5026</v>
+      </c>
+      <c r="R6" s="12">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -799,8 +841,14 @@
       <c r="P7" s="6">
         <v>1796.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="6">
+        <v>1836.7</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2110.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -849,8 +897,14 @@
       <c r="P8" s="6">
         <v>659.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="6">
+        <v>875.8</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1142.9000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -899,8 +953,14 @@
       <c r="P9" s="6">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="6">
+        <v>115.6</v>
+      </c>
+      <c r="R9" s="6">
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -949,8 +1009,14 @@
       <c r="P10" s="6">
         <v>300.89999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="6">
+        <v>373.2</v>
+      </c>
+      <c r="R10" s="6">
+        <v>473.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -999,8 +1065,14 @@
       <c r="P11" s="6">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="6">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="R11" s="6">
+        <v>128.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1049,8 +1121,14 @@
       <c r="P12" s="6">
         <v>675.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="6">
+        <v>881.6</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1171.5999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>

--- a/regionseng/11/industry/industry.xlsx
+++ b/regionseng/11/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,7 +497,7 @@
     <col min="1" max="1" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -567,8 +567,11 @@
       <c r="R2" s="11">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -623,8 +626,11 @@
       <c r="R3" s="6">
         <v>1618.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="6">
+        <v>1765.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -679,8 +685,11 @@
       <c r="R4" s="6">
         <v>1616.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="6">
+        <v>1774.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -735,8 +744,11 @@
       <c r="R5" s="12">
         <v>5600</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="12">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -791,8 +803,11 @@
       <c r="R6" s="12">
         <v>5532</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="12">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -847,8 +862,11 @@
       <c r="R7" s="6">
         <v>2110.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="6">
+        <v>2416.1999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -903,8 +921,11 @@
       <c r="R8" s="6">
         <v>1142.9000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="6">
+        <v>1201.9000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -959,8 +980,11 @@
       <c r="R9" s="6">
         <v>141.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="6">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1015,8 +1039,11 @@
       <c r="R10" s="6">
         <v>473.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="6">
+        <v>572.79999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1071,8 +1098,11 @@
       <c r="R11" s="6">
         <v>128.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="6">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="R12" s="6">
         <v>1171.5999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="6">
+        <v>1167.4000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
